--- a/B2-4 交通事故資料.xlsx
+++ b/B2-4 交通事故資料.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bai\Desktop\台灣科大\112 大數據分析概觀\課程\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://365nthu-my.sharepoint.com/personal/110062131_office365_nthu_edu_tw/Documents/桌面/大數據/big_data_hw2/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_871A4B3CC0364FFA945F7E55CBE95C8374FE9CCF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15380" windowHeight="5900"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="交通事故資料_未清理" sheetId="1" r:id="rId1"/>
@@ -4846,12 +4847,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -4859,7 +4860,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -4867,7 +4868,7 @@
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="新細明體"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="major"/>
@@ -4876,7 +4877,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -4885,7 +4886,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -4894,7 +4895,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -4902,7 +4903,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF006100"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -4910,7 +4911,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF9C0006"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -4918,7 +4919,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF9C6500"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -4926,7 +4927,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF3F3F76"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -4935,7 +4936,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF3F3F3F"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -4944,7 +4945,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFA7D00"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -4952,7 +4953,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFA7D00"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -4961,7 +4962,7 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -4969,7 +4970,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -4978,7 +4979,7 @@
       <i/>
       <sz val="12"/>
       <color rgb="FF7F7F7F"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -4987,7 +4988,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -4995,14 +4996,14 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -5757,32 +5758,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D681"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="14.54296875" customWidth="1"/>
-    <col min="2" max="2" width="51.6328125" customWidth="1"/>
-    <col min="3" max="3" width="16.08984375" customWidth="1"/>
-    <col min="4" max="4" width="17.81640625" customWidth="1"/>
+    <col min="1" max="1" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="51.59765625" customWidth="1"/>
+    <col min="3" max="3" width="16.09765625" customWidth="1"/>
+    <col min="4" max="4" width="17.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -5796,7 +5797,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -5810,7 +5811,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -5824,7 +5825,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -5838,7 +5839,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -5852,7 +5853,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -5866,7 +5867,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -5880,7 +5881,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -5894,7 +5895,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -5908,7 +5909,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>28</v>
       </c>
@@ -5922,7 +5923,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -5936,7 +5937,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -5950,7 +5951,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>38</v>
       </c>
@@ -5964,7 +5965,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -5978,7 +5979,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>44</v>
       </c>
@@ -5992,7 +5993,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>47</v>
       </c>
@@ -6006,7 +6007,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>50</v>
       </c>
@@ -6020,7 +6021,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>53</v>
       </c>
@@ -6034,7 +6035,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>55</v>
       </c>
@@ -6048,7 +6049,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>57</v>
       </c>
@@ -6062,7 +6063,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>60</v>
       </c>
@@ -6076,7 +6077,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>63</v>
       </c>
@@ -6090,7 +6091,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>66</v>
       </c>
@@ -6104,7 +6105,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>70</v>
       </c>
@@ -6118,7 +6119,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>72</v>
       </c>
@@ -6132,7 +6133,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>75</v>
       </c>
@@ -6146,7 +6147,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>78</v>
       </c>
@@ -6160,7 +6161,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>80</v>
       </c>
@@ -6174,7 +6175,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>83</v>
       </c>
@@ -6188,7 +6189,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>86</v>
       </c>
@@ -6202,7 +6203,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>89</v>
       </c>
@@ -6216,7 +6217,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>92</v>
       </c>
@@ -6230,7 +6231,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>96</v>
       </c>
@@ -6244,7 +6245,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>99</v>
       </c>
@@ -6258,7 +6259,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>101</v>
       </c>
@@ -6272,7 +6273,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>104</v>
       </c>
@@ -6286,7 +6287,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>107</v>
       </c>
@@ -6300,7 +6301,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:4">
       <c r="A40" t="s">
         <v>110</v>
       </c>
@@ -6314,7 +6315,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:4">
       <c r="A41" t="s">
         <v>113</v>
       </c>
@@ -6328,7 +6329,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:4">
       <c r="A42" t="s">
         <v>115</v>
       </c>
@@ -6342,7 +6343,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:4">
       <c r="A43" t="s">
         <v>118</v>
       </c>
@@ -6356,7 +6357,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:4">
       <c r="A44" t="s">
         <v>120</v>
       </c>
@@ -6370,7 +6371,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>122</v>
       </c>
@@ -6384,7 +6385,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:4">
       <c r="A46" t="s">
         <v>124</v>
       </c>
@@ -6398,7 +6399,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:4">
       <c r="A47" t="s">
         <v>127</v>
       </c>
@@ -6412,7 +6413,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:4">
       <c r="A48" t="s">
         <v>130</v>
       </c>
@@ -6426,7 +6427,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
         <v>132</v>
       </c>
@@ -6440,7 +6441,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
         <v>136</v>
       </c>
@@ -6454,7 +6455,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
         <v>138</v>
       </c>
@@ -6468,7 +6469,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:4">
       <c r="A52" t="s">
         <v>141</v>
       </c>
@@ -6482,7 +6483,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:4">
       <c r="A53" t="s">
         <v>143</v>
       </c>
@@ -6496,7 +6497,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
         <v>145</v>
       </c>
@@ -6510,7 +6511,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:4">
       <c r="A55" t="s">
         <v>147</v>
       </c>
@@ -6524,7 +6525,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:4">
       <c r="A56" t="s">
         <v>149</v>
       </c>
@@ -6538,7 +6539,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:4">
       <c r="A57" t="s">
         <v>152</v>
       </c>
@@ -6552,7 +6553,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:4">
       <c r="A58" t="s">
         <v>154</v>
       </c>
@@ -6566,7 +6567,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:4">
       <c r="A59" t="s">
         <v>156</v>
       </c>
@@ -6580,7 +6581,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:4">
       <c r="A60" t="s">
         <v>158</v>
       </c>
@@ -6594,7 +6595,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:4">
       <c r="A61" t="s">
         <v>161</v>
       </c>
@@ -6608,7 +6609,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:4">
       <c r="A62" t="s">
         <v>164</v>
       </c>
@@ -6622,7 +6623,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:4">
       <c r="A63" t="s">
         <v>167</v>
       </c>
@@ -6636,7 +6637,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:4">
       <c r="A64" t="s">
         <v>171</v>
       </c>
@@ -6650,7 +6651,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:4">
       <c r="A65" t="s">
         <v>174</v>
       </c>
@@ -6664,7 +6665,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:4">
       <c r="A66" t="s">
         <v>177</v>
       </c>
@@ -6678,7 +6679,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:4">
       <c r="A67" t="s">
         <v>180</v>
       </c>
@@ -6692,7 +6693,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:4">
       <c r="A68" t="s">
         <v>183</v>
       </c>
@@ -6706,7 +6707,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:4">
       <c r="A69" t="s">
         <v>186</v>
       </c>
@@ -6720,7 +6721,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:4">
       <c r="A70" t="s">
         <v>188</v>
       </c>
@@ -6734,7 +6735,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:4">
       <c r="A71" t="s">
         <v>190</v>
       </c>
@@ -6748,7 +6749,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:4">
       <c r="A72" t="s">
         <v>193</v>
       </c>
@@ -6762,7 +6763,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:4">
       <c r="A73" t="s">
         <v>196</v>
       </c>
@@ -6776,7 +6777,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:4">
       <c r="A74" t="s">
         <v>199</v>
       </c>
@@ -6790,7 +6791,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:4">
       <c r="A75" t="s">
         <v>202</v>
       </c>
@@ -6804,7 +6805,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:4">
       <c r="A76" t="s">
         <v>204</v>
       </c>
@@ -6818,7 +6819,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:4">
       <c r="A77" t="s">
         <v>206</v>
       </c>
@@ -6832,7 +6833,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:4">
       <c r="A78" t="s">
         <v>208</v>
       </c>
@@ -6846,7 +6847,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:4">
       <c r="A79" t="s">
         <v>211</v>
       </c>
@@ -6860,7 +6861,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:4">
       <c r="A80" t="s">
         <v>213</v>
       </c>
@@ -6874,7 +6875,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:4">
       <c r="A81" t="s">
         <v>216</v>
       </c>
@@ -6888,7 +6889,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:4">
       <c r="A82" t="s">
         <v>220</v>
       </c>
@@ -6902,7 +6903,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:4">
       <c r="A83" t="s">
         <v>222</v>
       </c>
@@ -6916,7 +6917,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:4">
       <c r="A84" t="s">
         <v>224</v>
       </c>
@@ -6930,7 +6931,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:4">
       <c r="A85" t="s">
         <v>227</v>
       </c>
@@ -6944,7 +6945,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:4">
       <c r="A86" t="s">
         <v>230</v>
       </c>
@@ -6958,7 +6959,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:4">
       <c r="A87" t="s">
         <v>230</v>
       </c>
@@ -6972,7 +6973,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:4">
       <c r="A88" t="s">
         <v>234</v>
       </c>
@@ -6986,7 +6987,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:4">
       <c r="A89" t="s">
         <v>236</v>
       </c>
@@ -7000,7 +7001,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:4">
       <c r="A90" t="s">
         <v>239</v>
       </c>
@@ -7014,7 +7015,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:4">
       <c r="A91" t="s">
         <v>241</v>
       </c>
@@ -7028,7 +7029,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:4">
       <c r="A92" t="s">
         <v>244</v>
       </c>
@@ -7042,7 +7043,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:4">
       <c r="A93" t="s">
         <v>246</v>
       </c>
@@ -7056,7 +7057,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:4">
       <c r="A94" t="s">
         <v>248</v>
       </c>
@@ -7070,7 +7071,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:4">
       <c r="A95" t="s">
         <v>250</v>
       </c>
@@ -7084,7 +7085,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:4">
       <c r="A96" t="s">
         <v>253</v>
       </c>
@@ -7098,7 +7099,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:4">
       <c r="A97" t="s">
         <v>256</v>
       </c>
@@ -7112,7 +7113,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:4">
       <c r="A98" t="s">
         <v>258</v>
       </c>
@@ -7126,7 +7127,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:4">
       <c r="A99" t="s">
         <v>261</v>
       </c>
@@ -7140,7 +7141,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:4">
       <c r="A100" t="s">
         <v>264</v>
       </c>
@@ -7154,7 +7155,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:4">
       <c r="A101" t="s">
         <v>267</v>
       </c>
@@ -7168,7 +7169,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:4">
       <c r="A102" t="s">
         <v>270</v>
       </c>
@@ -7182,7 +7183,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:4">
       <c r="A103" t="s">
         <v>272</v>
       </c>
@@ -7196,7 +7197,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:4">
       <c r="A104" t="s">
         <v>274</v>
       </c>
@@ -7210,7 +7211,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:4">
       <c r="A105" t="s">
         <v>277</v>
       </c>
@@ -7224,7 +7225,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:4">
       <c r="A106" t="s">
         <v>280</v>
       </c>
@@ -7238,7 +7239,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:4">
       <c r="A107" t="s">
         <v>282</v>
       </c>
@@ -7252,7 +7253,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:4">
       <c r="A108" t="s">
         <v>285</v>
       </c>
@@ -7266,7 +7267,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:4">
       <c r="A109" t="s">
         <v>287</v>
       </c>
@@ -7280,7 +7281,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:4">
       <c r="A110" t="s">
         <v>290</v>
       </c>
@@ -7294,7 +7295,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:4">
       <c r="A111" t="s">
         <v>292</v>
       </c>
@@ -7308,7 +7309,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:4">
       <c r="A112" t="s">
         <v>295</v>
       </c>
@@ -7322,7 +7323,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:4">
       <c r="A113" t="s">
         <v>297</v>
       </c>
@@ -7336,7 +7337,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:4">
       <c r="A114" t="s">
         <v>299</v>
       </c>
@@ -7350,7 +7351,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:4">
       <c r="A115" t="s">
         <v>301</v>
       </c>
@@ -7364,7 +7365,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:4">
       <c r="A116" t="s">
         <v>304</v>
       </c>
@@ -7378,7 +7379,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:4">
       <c r="A117" t="s">
         <v>306</v>
       </c>
@@ -7392,7 +7393,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:4">
       <c r="A118" t="s">
         <v>309</v>
       </c>
@@ -7406,7 +7407,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:4">
       <c r="A119" t="s">
         <v>311</v>
       </c>
@@ -7420,7 +7421,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:4">
       <c r="A120" t="s">
         <v>314</v>
       </c>
@@ -7434,7 +7435,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:4">
       <c r="A121" t="s">
         <v>316</v>
       </c>
@@ -7448,7 +7449,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:4">
       <c r="A122" t="s">
         <v>318</v>
       </c>
@@ -7462,7 +7463,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:4">
       <c r="A123" t="s">
         <v>320</v>
       </c>
@@ -7476,7 +7477,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:4">
       <c r="A124" t="s">
         <v>323</v>
       </c>
@@ -7490,7 +7491,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:4">
       <c r="A125" t="s">
         <v>326</v>
       </c>
@@ -7504,7 +7505,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:4">
       <c r="A126" t="s">
         <v>329</v>
       </c>
@@ -7518,7 +7519,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:4">
       <c r="A127" t="s">
         <v>332</v>
       </c>
@@ -7532,7 +7533,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:4">
       <c r="A128" t="s">
         <v>334</v>
       </c>
@@ -7546,7 +7547,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:4">
       <c r="A129" t="s">
         <v>336</v>
       </c>
@@ -7560,7 +7561,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:4">
       <c r="A130" t="s">
         <v>339</v>
       </c>
@@ -7574,7 +7575,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:4">
       <c r="A131" t="s">
         <v>341</v>
       </c>
@@ -7588,7 +7589,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:4">
       <c r="A132" t="s">
         <v>343</v>
       </c>
@@ -7602,7 +7603,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:4">
       <c r="A133" t="s">
         <v>345</v>
       </c>
@@ -7616,7 +7617,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:4">
       <c r="A134" t="s">
         <v>348</v>
       </c>
@@ -7630,7 +7631,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:4">
       <c r="A135" t="s">
         <v>351</v>
       </c>
@@ -7644,7 +7645,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:4">
       <c r="A136" t="s">
         <v>353</v>
       </c>
@@ -7658,7 +7659,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:4">
       <c r="A137" t="s">
         <v>356</v>
       </c>
@@ -7672,7 +7673,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:4">
       <c r="A138" t="s">
         <v>358</v>
       </c>
@@ -7686,7 +7687,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:4">
       <c r="A139" t="s">
         <v>360</v>
       </c>
@@ -7700,7 +7701,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:4">
       <c r="A140" t="s">
         <v>362</v>
       </c>
@@ -7714,7 +7715,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:4">
       <c r="A141" t="s">
         <v>365</v>
       </c>
@@ -7728,7 +7729,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:4">
       <c r="A142" t="s">
         <v>367</v>
       </c>
@@ -7742,7 +7743,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:4">
       <c r="A143" t="s">
         <v>370</v>
       </c>
@@ -7756,7 +7757,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:4">
       <c r="A144" t="s">
         <v>373</v>
       </c>
@@ -7770,7 +7771,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:4">
       <c r="A145" t="s">
         <v>376</v>
       </c>
@@ -7784,7 +7785,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:4">
       <c r="A146" t="s">
         <v>379</v>
       </c>
@@ -7798,7 +7799,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:4">
       <c r="A147" t="s">
         <v>381</v>
       </c>
@@ -7812,7 +7813,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:4">
       <c r="A148" t="s">
         <v>384</v>
       </c>
@@ -7826,7 +7827,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:4">
       <c r="A149" t="s">
         <v>386</v>
       </c>
@@ -7840,7 +7841,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:4">
       <c r="A150" t="s">
         <v>389</v>
       </c>
@@ -7854,7 +7855,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:4">
       <c r="A151" t="s">
         <v>392</v>
       </c>
@@ -7868,7 +7869,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:4">
       <c r="A152" t="s">
         <v>395</v>
       </c>
@@ -7882,7 +7883,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:4">
       <c r="A153" t="s">
         <v>398</v>
       </c>
@@ -7896,7 +7897,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:4">
       <c r="A154" t="s">
         <v>401</v>
       </c>
@@ -7910,7 +7911,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:4">
       <c r="A155" t="s">
         <v>403</v>
       </c>
@@ -7924,7 +7925,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:4">
       <c r="A156" t="s">
         <v>405</v>
       </c>
@@ -7938,7 +7939,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:4">
       <c r="A157" t="s">
         <v>407</v>
       </c>
@@ -7952,7 +7953,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:4">
       <c r="A158" t="s">
         <v>410</v>
       </c>
@@ -7966,7 +7967,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:4">
       <c r="A159" t="s">
         <v>412</v>
       </c>
@@ -7980,7 +7981,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:4">
       <c r="A160" t="s">
         <v>414</v>
       </c>
@@ -7994,7 +7995,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:4">
       <c r="A161" t="s">
         <v>418</v>
       </c>
@@ -8008,7 +8009,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:4">
       <c r="A162" t="s">
         <v>421</v>
       </c>
@@ -8022,7 +8023,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:4">
       <c r="A163" t="s">
         <v>424</v>
       </c>
@@ -8036,7 +8037,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:4">
       <c r="A164" t="s">
         <v>426</v>
       </c>
@@ -8050,7 +8051,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:4">
       <c r="A165" t="s">
         <v>428</v>
       </c>
@@ -8064,7 +8065,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:4">
       <c r="A166" t="s">
         <v>430</v>
       </c>
@@ -8078,7 +8079,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:4">
       <c r="A167" t="s">
         <v>432</v>
       </c>
@@ -8092,7 +8093,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:4">
       <c r="A168" t="s">
         <v>435</v>
       </c>
@@ -8106,7 +8107,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:4">
       <c r="A169" t="s">
         <v>437</v>
       </c>
@@ -8120,7 +8121,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:4">
       <c r="A170" t="s">
         <v>440</v>
       </c>
@@ -8134,7 +8135,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:4">
       <c r="A171" t="s">
         <v>443</v>
       </c>
@@ -8148,7 +8149,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:4">
       <c r="A172" t="s">
         <v>445</v>
       </c>
@@ -8162,7 +8163,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:4">
       <c r="A173" t="s">
         <v>447</v>
       </c>
@@ -8176,7 +8177,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:4">
       <c r="A174" t="s">
         <v>449</v>
       </c>
@@ -8190,7 +8191,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:4">
       <c r="A175" t="s">
         <v>452</v>
       </c>
@@ -8204,7 +8205,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:4">
       <c r="A176" t="s">
         <v>455</v>
       </c>
@@ -8218,7 +8219,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:4">
       <c r="A177" t="s">
         <v>458</v>
       </c>
@@ -8232,7 +8233,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:4">
       <c r="A178" t="s">
         <v>460</v>
       </c>
@@ -8246,7 +8247,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:4">
       <c r="A179" t="s">
         <v>463</v>
       </c>
@@ -8260,7 +8261,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:4">
       <c r="A180" t="s">
         <v>465</v>
       </c>
@@ -8274,7 +8275,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:4">
       <c r="A181" t="s">
         <v>468</v>
       </c>
@@ -8288,7 +8289,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:4">
       <c r="A182" t="s">
         <v>470</v>
       </c>
@@ -8302,7 +8303,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:4">
       <c r="A183" t="s">
         <v>472</v>
       </c>
@@ -8316,7 +8317,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:4">
       <c r="A184" t="s">
         <v>475</v>
       </c>
@@ -8330,7 +8331,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:4">
       <c r="A185" t="s">
         <v>477</v>
       </c>
@@ -8344,7 +8345,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:4">
       <c r="A186" t="s">
         <v>479</v>
       </c>
@@ -8358,7 +8359,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:4">
       <c r="A187" t="s">
         <v>481</v>
       </c>
@@ -8372,7 +8373,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:4">
       <c r="A188" t="s">
         <v>484</v>
       </c>
@@ -8386,7 +8387,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:4">
       <c r="A189" t="s">
         <v>486</v>
       </c>
@@ -8400,7 +8401,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:4">
       <c r="A190" t="s">
         <v>488</v>
       </c>
@@ -8414,7 +8415,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:4">
       <c r="A191" t="s">
         <v>490</v>
       </c>
@@ -8428,7 +8429,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:4">
       <c r="A192" t="s">
         <v>492</v>
       </c>
@@ -8442,7 +8443,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:4">
       <c r="A193" t="s">
         <v>494</v>
       </c>
@@ -8456,7 +8457,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:4">
       <c r="A194" t="s">
         <v>496</v>
       </c>
@@ -8470,7 +8471,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:4">
       <c r="A195" t="s">
         <v>498</v>
       </c>
@@ -8484,7 +8485,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:4">
       <c r="A196" t="s">
         <v>501</v>
       </c>
@@ -8498,7 +8499,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:4">
       <c r="A197" t="s">
         <v>504</v>
       </c>
@@ -8512,7 +8513,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:4">
       <c r="A198" t="s">
         <v>506</v>
       </c>
@@ -8526,7 +8527,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:4">
       <c r="A199" t="s">
         <v>509</v>
       </c>
@@ -8540,7 +8541,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:4">
       <c r="A200" t="s">
         <v>512</v>
       </c>
@@ -8554,7 +8555,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:4">
       <c r="A201" t="s">
         <v>514</v>
       </c>
@@ -8568,7 +8569,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:4">
       <c r="A202" t="s">
         <v>516</v>
       </c>
@@ -8582,7 +8583,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:4">
       <c r="A203" t="s">
         <v>518</v>
       </c>
@@ -8596,7 +8597,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:4">
       <c r="A204" t="s">
         <v>520</v>
       </c>
@@ -8610,7 +8611,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:4">
       <c r="A205" t="s">
         <v>523</v>
       </c>
@@ -8624,7 +8625,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:4">
       <c r="A206" t="s">
         <v>525</v>
       </c>
@@ -8638,7 +8639,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:4">
       <c r="A207" t="s">
         <v>527</v>
       </c>
@@ -8652,7 +8653,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:4">
       <c r="A208" t="s">
         <v>529</v>
       </c>
@@ -8666,7 +8667,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:4">
       <c r="A209" t="s">
         <v>531</v>
       </c>
@@ -8680,7 +8681,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:4">
       <c r="A210" t="s">
         <v>533</v>
       </c>
@@ -8694,7 +8695,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:4">
       <c r="A211" t="s">
         <v>535</v>
       </c>
@@ -8708,7 +8709,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:4">
       <c r="A212" t="s">
         <v>537</v>
       </c>
@@ -8722,7 +8723,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:4">
       <c r="A213" t="s">
         <v>540</v>
       </c>
@@ -8736,7 +8737,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:4">
       <c r="A214" t="s">
         <v>542</v>
       </c>
@@ -8750,7 +8751,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:4">
       <c r="A215" t="s">
         <v>544</v>
       </c>
@@ -8764,7 +8765,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:4">
       <c r="A216" t="s">
         <v>547</v>
       </c>
@@ -8778,7 +8779,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:4">
       <c r="A217" t="s">
         <v>550</v>
       </c>
@@ -8792,7 +8793,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:4">
       <c r="A218" t="s">
         <v>553</v>
       </c>
@@ -8806,7 +8807,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:4">
       <c r="A219" t="s">
         <v>556</v>
       </c>
@@ -8820,7 +8821,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:4">
       <c r="A220" t="s">
         <v>558</v>
       </c>
@@ -8834,7 +8835,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:4">
       <c r="A221" t="s">
         <v>560</v>
       </c>
@@ -8848,7 +8849,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:4">
       <c r="A222" t="s">
         <v>562</v>
       </c>
@@ -8862,7 +8863,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:4">
       <c r="A223" t="s">
         <v>564</v>
       </c>
@@ -8876,7 +8877,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:4">
       <c r="A224" t="s">
         <v>566</v>
       </c>
@@ -8890,7 +8891,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:4">
       <c r="A225" t="s">
         <v>568</v>
       </c>
@@ -8904,7 +8905,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:4">
       <c r="A226" t="s">
         <v>570</v>
       </c>
@@ -8918,7 +8919,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:4">
       <c r="A227" t="s">
         <v>572</v>
       </c>
@@ -8932,7 +8933,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:4">
       <c r="A228" t="s">
         <v>574</v>
       </c>
@@ -8946,7 +8947,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:4">
       <c r="A229" t="s">
         <v>576</v>
       </c>
@@ -8960,7 +8961,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:4">
       <c r="A230" t="s">
         <v>578</v>
       </c>
@@ -8974,7 +8975,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:4">
       <c r="A231" t="s">
         <v>581</v>
       </c>
@@ -8988,7 +8989,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:4">
       <c r="A232" t="s">
         <v>584</v>
       </c>
@@ -9002,7 +9003,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:4">
       <c r="A233" t="s">
         <v>587</v>
       </c>
@@ -9016,7 +9017,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:4">
       <c r="A234" t="s">
         <v>590</v>
       </c>
@@ -9030,7 +9031,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:4">
       <c r="A235" t="s">
         <v>593</v>
       </c>
@@ -9044,7 +9045,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:4">
       <c r="A236" t="s">
         <v>595</v>
       </c>
@@ -9058,7 +9059,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:4">
       <c r="A237" t="s">
         <v>597</v>
       </c>
@@ -9072,7 +9073,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:4">
       <c r="A238" t="s">
         <v>600</v>
       </c>
@@ -9086,7 +9087,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:4">
       <c r="A239" t="s">
         <v>603</v>
       </c>
@@ -9100,7 +9101,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:4">
       <c r="A240" t="s">
         <v>605</v>
       </c>
@@ -9114,7 +9115,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:4">
       <c r="A241" t="s">
         <v>608</v>
       </c>
@@ -9128,7 +9129,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:4">
       <c r="A242" t="s">
         <v>610</v>
       </c>
@@ -9142,7 +9143,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:4">
       <c r="A243" t="s">
         <v>612</v>
       </c>
@@ -9156,7 +9157,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:4">
       <c r="A244" t="s">
         <v>614</v>
       </c>
@@ -9170,7 +9171,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:4">
       <c r="A245" t="s">
         <v>616</v>
       </c>
@@ -9184,7 +9185,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:4">
       <c r="A246" t="s">
         <v>618</v>
       </c>
@@ -9198,7 +9199,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:4">
       <c r="A247" t="s">
         <v>622</v>
       </c>
@@ -9212,7 +9213,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:4">
       <c r="A248" t="s">
         <v>625</v>
       </c>
@@ -9226,7 +9227,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:4">
       <c r="A249" t="s">
         <v>627</v>
       </c>
@@ -9240,7 +9241,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:4">
       <c r="A250" t="s">
         <v>629</v>
       </c>
@@ -9254,7 +9255,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:4">
       <c r="A251" t="s">
         <v>631</v>
       </c>
@@ -9268,7 +9269,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:4">
       <c r="A252" t="s">
         <v>633</v>
       </c>
@@ -9282,7 +9283,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:4">
       <c r="A253" t="s">
         <v>636</v>
       </c>
@@ -9296,7 +9297,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:4">
       <c r="A254" t="s">
         <v>638</v>
       </c>
@@ -9310,7 +9311,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:4">
       <c r="A255" t="s">
         <v>641</v>
       </c>
@@ -9324,7 +9325,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:4">
       <c r="A256" t="s">
         <v>643</v>
       </c>
@@ -9338,7 +9339,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:4">
       <c r="A257" t="s">
         <v>645</v>
       </c>
@@ -9352,7 +9353,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:4">
       <c r="A258" t="s">
         <v>648</v>
       </c>
@@ -9366,7 +9367,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:4">
       <c r="A259" t="s">
         <v>651</v>
       </c>
@@ -9380,7 +9381,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:4">
       <c r="A260" t="s">
         <v>654</v>
       </c>
@@ -9394,7 +9395,7 @@
         <v>656</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:4">
       <c r="A261" t="s">
         <v>657</v>
       </c>
@@ -9408,7 +9409,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:4">
       <c r="A262" t="s">
         <v>660</v>
       </c>
@@ -9422,7 +9423,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:4">
       <c r="A263" t="s">
         <v>662</v>
       </c>
@@ -9436,7 +9437,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:4">
       <c r="A264" t="s">
         <v>664</v>
       </c>
@@ -9450,7 +9451,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:4">
       <c r="A265" t="s">
         <v>666</v>
       </c>
@@ -9464,7 +9465,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:4">
       <c r="A266" t="s">
         <v>668</v>
       </c>
@@ -9478,7 +9479,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:4">
       <c r="A267" t="s">
         <v>670</v>
       </c>
@@ -9492,7 +9493,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:4">
       <c r="A268" t="s">
         <v>672</v>
       </c>
@@ -9506,7 +9507,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:4">
       <c r="A269" t="s">
         <v>675</v>
       </c>
@@ -9520,7 +9521,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:4">
       <c r="A270" t="s">
         <v>679</v>
       </c>
@@ -9534,7 +9535,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:4">
       <c r="A271" t="s">
         <v>682</v>
       </c>
@@ -9548,7 +9549,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:4">
       <c r="A272" t="s">
         <v>684</v>
       </c>
@@ -9562,7 +9563,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:4">
       <c r="A273" t="s">
         <v>686</v>
       </c>
@@ -9576,7 +9577,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:4">
       <c r="A274" t="s">
         <v>688</v>
       </c>
@@ -9590,7 +9591,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:4">
       <c r="A275" t="s">
         <v>690</v>
       </c>
@@ -9604,7 +9605,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:4">
       <c r="A276" t="s">
         <v>692</v>
       </c>
@@ -9618,7 +9619,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:4">
       <c r="A277" t="s">
         <v>694</v>
       </c>
@@ -9632,7 +9633,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:4">
       <c r="A278" t="s">
         <v>696</v>
       </c>
@@ -9646,7 +9647,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:4">
       <c r="A279" t="s">
         <v>698</v>
       </c>
@@ -9660,7 +9661,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:4">
       <c r="A280" t="s">
         <v>700</v>
       </c>
@@ -9674,7 +9675,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:4">
       <c r="A281" t="s">
         <v>702</v>
       </c>
@@ -9688,7 +9689,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:4">
       <c r="A282" t="s">
         <v>704</v>
       </c>
@@ -9702,7 +9703,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:4">
       <c r="A283" t="s">
         <v>706</v>
       </c>
@@ -9716,7 +9717,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:4">
       <c r="A284" t="s">
         <v>708</v>
       </c>
@@ -9730,7 +9731,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:4">
       <c r="A285" t="s">
         <v>710</v>
       </c>
@@ -9744,7 +9745,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:4">
       <c r="A286" t="s">
         <v>712</v>
       </c>
@@ -9758,7 +9759,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:4">
       <c r="A287" t="s">
         <v>715</v>
       </c>
@@ -9772,7 +9773,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:4">
       <c r="A288" t="s">
         <v>717</v>
       </c>
@@ -9786,7 +9787,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:4">
       <c r="A289" t="s">
         <v>720</v>
       </c>
@@ -9800,7 +9801,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:4">
       <c r="A290" t="s">
         <v>722</v>
       </c>
@@ -9814,7 +9815,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:4">
       <c r="A291" t="s">
         <v>724</v>
       </c>
@@ -9828,7 +9829,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:4">
       <c r="A292" t="s">
         <v>726</v>
       </c>
@@ -9842,7 +9843,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:4">
       <c r="A293" t="s">
         <v>729</v>
       </c>
@@ -9856,7 +9857,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:4">
       <c r="A294" t="s">
         <v>731</v>
       </c>
@@ -9870,7 +9871,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:4">
       <c r="A295" t="s">
         <v>733</v>
       </c>
@@ -9884,7 +9885,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:4">
       <c r="A296" t="s">
         <v>735</v>
       </c>
@@ -9898,7 +9899,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:4">
       <c r="A297" t="s">
         <v>737</v>
       </c>
@@ -9912,7 +9913,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:4">
       <c r="A298" t="s">
         <v>740</v>
       </c>
@@ -9926,7 +9927,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:4">
       <c r="A299" t="s">
         <v>742</v>
       </c>
@@ -9940,7 +9941,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:4">
       <c r="A300" t="s">
         <v>744</v>
       </c>
@@ -9954,7 +9955,7 @@
         <v>746</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:4">
       <c r="A301" t="s">
         <v>747</v>
       </c>
@@ -9968,7 +9969,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:4">
       <c r="A302" t="s">
         <v>749</v>
       </c>
@@ -9982,7 +9983,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:4">
       <c r="A303" t="s">
         <v>752</v>
       </c>
@@ -9996,7 +9997,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:4">
       <c r="A304" t="s">
         <v>754</v>
       </c>
@@ -10010,7 +10011,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:4">
       <c r="A305" t="s">
         <v>757</v>
       </c>
@@ -10024,7 +10025,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:4">
       <c r="A306" t="s">
         <v>759</v>
       </c>
@@ -10038,7 +10039,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:4">
       <c r="A307" t="s">
         <v>761</v>
       </c>
@@ -10052,7 +10053,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:4">
       <c r="A308" t="s">
         <v>763</v>
       </c>
@@ -10066,7 +10067,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:4">
       <c r="A309" t="s">
         <v>765</v>
       </c>
@@ -10080,7 +10081,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:4">
       <c r="A310" t="s">
         <v>767</v>
       </c>
@@ -10094,7 +10095,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:4">
       <c r="A311" t="s">
         <v>769</v>
       </c>
@@ -10108,7 +10109,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:4">
       <c r="A312" t="s">
         <v>771</v>
       </c>
@@ -10122,7 +10123,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:4">
       <c r="A313" t="s">
         <v>774</v>
       </c>
@@ -10136,7 +10137,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:4">
       <c r="A314" t="s">
         <v>776</v>
       </c>
@@ -10150,7 +10151,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:4">
       <c r="A315" t="s">
         <v>778</v>
       </c>
@@ -10164,7 +10165,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:4">
       <c r="A316" t="s">
         <v>780</v>
       </c>
@@ -10178,7 +10179,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:4">
       <c r="A317" t="s">
         <v>782</v>
       </c>
@@ -10192,7 +10193,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:4">
       <c r="A318" t="s">
         <v>784</v>
       </c>
@@ -10206,7 +10207,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:4">
       <c r="A319" t="s">
         <v>786</v>
       </c>
@@ -10220,7 +10221,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:4">
       <c r="A320" t="s">
         <v>788</v>
       </c>
@@ -10234,7 +10235,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:4">
       <c r="A321" t="s">
         <v>790</v>
       </c>
@@ -10248,7 +10249,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:4">
       <c r="A322" t="s">
         <v>793</v>
       </c>
@@ -10262,7 +10263,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:4">
       <c r="A323" t="s">
         <v>796</v>
       </c>
@@ -10276,7 +10277,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:4">
       <c r="A324" t="s">
         <v>798</v>
       </c>
@@ -10290,7 +10291,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:4">
       <c r="A325" t="s">
         <v>800</v>
       </c>
@@ -10304,7 +10305,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:4">
       <c r="A326" t="s">
         <v>803</v>
       </c>
@@ -10318,7 +10319,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:4">
       <c r="A327" t="s">
         <v>805</v>
       </c>
@@ -10332,7 +10333,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:4">
       <c r="A328" t="s">
         <v>808</v>
       </c>
@@ -10346,7 +10347,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:4">
       <c r="A329" t="s">
         <v>810</v>
       </c>
@@ -10360,7 +10361,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:4">
       <c r="A330" t="s">
         <v>812</v>
       </c>
@@ -10374,7 +10375,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:4">
       <c r="A331" t="s">
         <v>814</v>
       </c>
@@ -10388,7 +10389,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:4">
       <c r="A332" t="s">
         <v>816</v>
       </c>
@@ -10402,7 +10403,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:4">
       <c r="A333" t="s">
         <v>818</v>
       </c>
@@ -10416,7 +10417,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:4">
       <c r="A334" t="s">
         <v>820</v>
       </c>
@@ -10430,7 +10431,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:4">
       <c r="A335" t="s">
         <v>822</v>
       </c>
@@ -10444,7 +10445,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:4">
       <c r="A336" t="s">
         <v>824</v>
       </c>
@@ -10458,7 +10459,7 @@
         <v>826</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:4">
       <c r="A337" t="s">
         <v>827</v>
       </c>
@@ -10472,7 +10473,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:4">
       <c r="A338" t="s">
         <v>830</v>
       </c>
@@ -10486,7 +10487,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:4">
       <c r="A339" t="s">
         <v>832</v>
       </c>
@@ -10500,7 +10501,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:4">
       <c r="A340" t="s">
         <v>834</v>
       </c>
@@ -10514,7 +10515,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:4">
       <c r="A341" t="s">
         <v>836</v>
       </c>
@@ -10528,7 +10529,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:4">
       <c r="A342" t="s">
         <v>838</v>
       </c>
@@ -10542,7 +10543,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:4">
       <c r="A343" t="s">
         <v>841</v>
       </c>
@@ -10556,7 +10557,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:4">
       <c r="A344" t="s">
         <v>843</v>
       </c>
@@ -10570,7 +10571,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:4">
       <c r="A345" t="s">
         <v>845</v>
       </c>
@@ -10584,7 +10585,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:4">
       <c r="A346" t="s">
         <v>847</v>
       </c>
@@ -10598,7 +10599,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:4">
       <c r="A347" t="s">
         <v>849</v>
       </c>
@@ -10612,7 +10613,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:4">
       <c r="A348" t="s">
         <v>851</v>
       </c>
@@ -10626,7 +10627,7 @@
         <v>853</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:4">
       <c r="A349" t="s">
         <v>854</v>
       </c>
@@ -10640,7 +10641,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:4">
       <c r="A350" t="s">
         <v>856</v>
       </c>
@@ -10654,7 +10655,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="351" spans="1:4">
       <c r="A351" t="s">
         <v>858</v>
       </c>
@@ -10668,7 +10669,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:4">
       <c r="A352" t="s">
         <v>860</v>
       </c>
@@ -10682,7 +10683,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:4">
       <c r="A353" t="s">
         <v>862</v>
       </c>
@@ -10696,7 +10697,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:4">
       <c r="A354" t="s">
         <v>864</v>
       </c>
@@ -10710,7 +10711,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:4">
       <c r="A355" t="s">
         <v>866</v>
       </c>
@@ -10724,7 +10725,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="356" spans="1:4">
       <c r="A356" t="s">
         <v>868</v>
       </c>
@@ -10738,7 +10739,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="357" spans="1:4">
       <c r="A357" t="s">
         <v>870</v>
       </c>
@@ -10752,7 +10753,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:4">
       <c r="A358" t="s">
         <v>872</v>
       </c>
@@ -10766,7 +10767,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:4">
       <c r="A359" t="s">
         <v>874</v>
       </c>
@@ -10780,7 +10781,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="360" spans="1:4">
       <c r="A360" t="s">
         <v>877</v>
       </c>
@@ -10794,7 +10795,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:4">
       <c r="A361" t="s">
         <v>879</v>
       </c>
@@ -10808,7 +10809,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="362" spans="1:4">
       <c r="A362" t="s">
         <v>882</v>
       </c>
@@ -10822,7 +10823,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:4">
       <c r="A363" t="s">
         <v>884</v>
       </c>
@@ -10836,7 +10837,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="364" spans="1:4">
       <c r="A364" t="s">
         <v>886</v>
       </c>
@@ -10850,7 +10851,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="365" spans="1:4">
       <c r="A365" t="s">
         <v>888</v>
       </c>
@@ -10864,7 +10865,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:4">
       <c r="A366" t="s">
         <v>890</v>
       </c>
@@ -10878,7 +10879,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:4">
       <c r="A367" t="s">
         <v>892</v>
       </c>
@@ -10892,7 +10893,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:4">
       <c r="A368" t="s">
         <v>894</v>
       </c>
@@ -10906,7 +10907,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="369" spans="1:4">
       <c r="A369" t="s">
         <v>896</v>
       </c>
@@ -10920,7 +10921,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="370" spans="1:4">
       <c r="A370" t="s">
         <v>898</v>
       </c>
@@ -10934,7 +10935,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="371" spans="1:4">
       <c r="A371" t="s">
         <v>901</v>
       </c>
@@ -10948,7 +10949,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="372" spans="1:4">
       <c r="A372" t="s">
         <v>903</v>
       </c>
@@ -10962,7 +10963,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="373" spans="1:4">
       <c r="A373" t="s">
         <v>905</v>
       </c>
@@ -10976,7 +10977,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="374" spans="1:4">
       <c r="A374" t="s">
         <v>907</v>
       </c>
@@ -10990,7 +10991,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="375" spans="1:4">
       <c r="A375" t="s">
         <v>909</v>
       </c>
@@ -11004,7 +11005,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="376" spans="1:4">
       <c r="A376" t="s">
         <v>911</v>
       </c>
@@ -11018,7 +11019,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="377" spans="1:4">
       <c r="A377" t="s">
         <v>913</v>
       </c>
@@ -11032,7 +11033,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="378" spans="1:4">
       <c r="A378" t="s">
         <v>916</v>
       </c>
@@ -11046,7 +11047,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="379" spans="1:4">
       <c r="A379" t="s">
         <v>918</v>
       </c>
@@ -11060,7 +11061,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="380" spans="1:4">
       <c r="A380" t="s">
         <v>921</v>
       </c>
@@ -11074,7 +11075,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="381" spans="1:4">
       <c r="A381" t="s">
         <v>923</v>
       </c>
@@ -11088,7 +11089,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="382" spans="1:4">
       <c r="A382" t="s">
         <v>925</v>
       </c>
@@ -11102,7 +11103,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="383" spans="1:4">
       <c r="A383" t="s">
         <v>928</v>
       </c>
@@ -11116,7 +11117,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="384" spans="1:4">
       <c r="A384" t="s">
         <v>931</v>
       </c>
@@ -11130,7 +11131,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="385" spans="1:4">
       <c r="A385" t="s">
         <v>933</v>
       </c>
@@ -11144,7 +11145,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="386" spans="1:4">
       <c r="A386" t="s">
         <v>935</v>
       </c>
@@ -11158,7 +11159,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="387" spans="1:4">
       <c r="A387" t="s">
         <v>938</v>
       </c>
@@ -11172,7 +11173,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="388" spans="1:4">
       <c r="A388" t="s">
         <v>940</v>
       </c>
@@ -11186,7 +11187,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="389" spans="1:4">
       <c r="A389" t="s">
         <v>942</v>
       </c>
@@ -11200,7 +11201,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="390" spans="1:4">
       <c r="A390" t="s">
         <v>945</v>
       </c>
@@ -11214,7 +11215,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="391" spans="1:4">
       <c r="A391" t="s">
         <v>947</v>
       </c>
@@ -11228,7 +11229,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="392" spans="1:4">
       <c r="A392" t="s">
         <v>949</v>
       </c>
@@ -11242,7 +11243,7 @@
         <v>951</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="393" spans="1:4">
       <c r="A393" t="s">
         <v>952</v>
       </c>
@@ -11256,7 +11257,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="394" spans="1:4">
       <c r="A394" t="s">
         <v>954</v>
       </c>
@@ -11270,7 +11271,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="395" spans="1:4">
       <c r="A395" t="s">
         <v>956</v>
       </c>
@@ -11284,7 +11285,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="396" spans="1:4">
       <c r="A396" t="s">
         <v>959</v>
       </c>
@@ -11298,7 +11299,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="397" spans="1:4">
       <c r="A397" t="s">
         <v>962</v>
       </c>
@@ -11312,7 +11313,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="398" spans="1:4">
       <c r="A398" t="s">
         <v>964</v>
       </c>
@@ -11326,7 +11327,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="399" spans="1:4">
       <c r="A399" t="s">
         <v>967</v>
       </c>
@@ -11340,7 +11341,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="400" spans="1:4">
       <c r="A400" t="s">
         <v>970</v>
       </c>
@@ -11354,7 +11355,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="401" spans="1:4">
       <c r="A401" t="s">
         <v>972</v>
       </c>
@@ -11368,7 +11369,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="402" spans="1:4">
       <c r="A402" t="s">
         <v>974</v>
       </c>
@@ -11382,7 +11383,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="403" spans="1:4">
       <c r="A403" t="s">
         <v>976</v>
       </c>
@@ -11396,7 +11397,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="404" spans="1:4">
       <c r="A404" t="s">
         <v>979</v>
       </c>
@@ -11410,7 +11411,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="405" spans="1:4">
       <c r="A405" t="s">
         <v>981</v>
       </c>
@@ -11424,7 +11425,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="406" spans="1:4">
       <c r="A406" t="s">
         <v>984</v>
       </c>
@@ -11438,7 +11439,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="407" spans="1:4">
       <c r="A407" t="s">
         <v>986</v>
       </c>
@@ -11452,7 +11453,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="408" spans="1:4">
       <c r="A408" t="s">
         <v>988</v>
       </c>
@@ -11466,7 +11467,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="409" spans="1:4">
       <c r="A409" t="s">
         <v>990</v>
       </c>
@@ -11480,7 +11481,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="410" spans="1:4">
       <c r="A410" t="s">
         <v>992</v>
       </c>
@@ -11494,7 +11495,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="411" spans="1:4">
       <c r="A411" t="s">
         <v>994</v>
       </c>
@@ -11508,7 +11509,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="412" spans="1:4">
       <c r="A412" t="s">
         <v>997</v>
       </c>
@@ -11522,7 +11523,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="413" spans="1:4">
       <c r="A413" t="s">
         <v>999</v>
       </c>
@@ -11536,7 +11537,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="414" spans="1:4">
       <c r="A414" t="s">
         <v>1002</v>
       </c>
@@ -11550,7 +11551,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="415" spans="1:4">
       <c r="A415" t="s">
         <v>1004</v>
       </c>
@@ -11564,7 +11565,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="416" spans="1:4">
       <c r="A416" t="s">
         <v>1006</v>
       </c>
@@ -11578,7 +11579,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="417" spans="1:4">
       <c r="A417" t="s">
         <v>1009</v>
       </c>
@@ -11592,7 +11593,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="418" spans="1:4">
       <c r="A418" t="s">
         <v>1012</v>
       </c>
@@ -11606,7 +11607,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="419" spans="1:4">
       <c r="A419" t="s">
         <v>1015</v>
       </c>
@@ -11620,7 +11621,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="420" spans="1:4">
       <c r="A420" t="s">
         <v>1017</v>
       </c>
@@ -11634,7 +11635,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="421" spans="1:4">
       <c r="A421" t="s">
         <v>1019</v>
       </c>
@@ -11648,7 +11649,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="422" spans="1:4">
       <c r="A422" t="s">
         <v>1021</v>
       </c>
@@ -11662,7 +11663,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="423" spans="1:4">
       <c r="A423" t="s">
         <v>1023</v>
       </c>
@@ -11676,7 +11677,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="424" spans="1:4">
       <c r="A424" t="s">
         <v>1025</v>
       </c>
@@ -11690,7 +11691,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="425" spans="1:4">
       <c r="A425" t="s">
         <v>1028</v>
       </c>
@@ -11704,7 +11705,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="426" spans="1:4">
       <c r="A426" t="s">
         <v>1030</v>
       </c>
@@ -11718,7 +11719,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="427" spans="1:4">
       <c r="A427" t="s">
         <v>1032</v>
       </c>
@@ -11732,7 +11733,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="428" spans="1:4">
       <c r="A428" t="s">
         <v>1035</v>
       </c>
@@ -11746,7 +11747,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="429" spans="1:4">
       <c r="A429" t="s">
         <v>1037</v>
       </c>
@@ -11760,7 +11761,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="430" spans="1:4">
       <c r="A430" t="s">
         <v>1039</v>
       </c>
@@ -11774,7 +11775,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="431" spans="1:4">
       <c r="A431" t="s">
         <v>1041</v>
       </c>
@@ -11788,7 +11789,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="432" spans="1:4">
       <c r="A432" t="s">
         <v>1043</v>
       </c>
@@ -11802,7 +11803,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="433" spans="1:4">
       <c r="A433" t="s">
         <v>1045</v>
       </c>
@@ -11816,7 +11817,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="434" spans="1:4">
       <c r="A434" t="s">
         <v>1048</v>
       </c>
@@ -11830,7 +11831,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="435" spans="1:4">
       <c r="A435" t="s">
         <v>1050</v>
       </c>
@@ -11844,7 +11845,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="436" spans="1:4">
       <c r="A436" t="s">
         <v>1052</v>
       </c>
@@ -11858,7 +11859,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="437" spans="1:4">
       <c r="A437" t="s">
         <v>1054</v>
       </c>
@@ -11872,7 +11873,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="438" spans="1:4">
       <c r="A438" t="s">
         <v>1057</v>
       </c>
@@ -11886,7 +11887,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="439" spans="1:4">
       <c r="A439" t="s">
         <v>1060</v>
       </c>
@@ -11900,7 +11901,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="440" spans="1:4">
       <c r="A440" t="s">
         <v>1062</v>
       </c>
@@ -11914,7 +11915,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="441" spans="1:4">
       <c r="A441" t="s">
         <v>1064</v>
       </c>
@@ -11928,7 +11929,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="442" spans="1:4">
       <c r="A442" t="s">
         <v>1066</v>
       </c>
@@ -11942,7 +11943,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="443" spans="1:4">
       <c r="A443" t="s">
         <v>1069</v>
       </c>
@@ -11956,7 +11957,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="444" spans="1:4">
       <c r="A444" t="s">
         <v>1071</v>
       </c>
@@ -11970,7 +11971,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="445" spans="1:4">
       <c r="A445" t="s">
         <v>1073</v>
       </c>
@@ -11984,7 +11985,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="446" spans="1:4">
       <c r="A446" t="s">
         <v>1076</v>
       </c>
@@ -11998,7 +11999,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="447" spans="1:4">
       <c r="A447" t="s">
         <v>1078</v>
       </c>
@@ -12012,7 +12013,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="448" spans="1:4">
       <c r="A448" t="s">
         <v>1080</v>
       </c>
@@ -12026,7 +12027,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="449" spans="1:4">
       <c r="A449" t="s">
         <v>1082</v>
       </c>
@@ -12040,7 +12041,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="450" spans="1:4">
       <c r="A450" t="s">
         <v>1085</v>
       </c>
@@ -12054,7 +12055,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="451" spans="1:4">
       <c r="A451" t="s">
         <v>1087</v>
       </c>
@@ -12068,7 +12069,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="452" spans="1:4">
       <c r="A452" t="s">
         <v>1089</v>
       </c>
@@ -12082,7 +12083,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="453" spans="1:4">
       <c r="A453" t="s">
         <v>1091</v>
       </c>
@@ -12096,7 +12097,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="454" spans="1:4">
       <c r="A454" t="s">
         <v>1093</v>
       </c>
@@ -12110,7 +12111,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="455" spans="1:4">
       <c r="A455" t="s">
         <v>1095</v>
       </c>
@@ -12124,7 +12125,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="456" spans="1:4">
       <c r="A456" t="s">
         <v>1098</v>
       </c>
@@ -12138,7 +12139,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="457" spans="1:4">
       <c r="A457" t="s">
         <v>1100</v>
       </c>
@@ -12152,7 +12153,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="458" spans="1:4">
       <c r="A458" t="s">
         <v>1102</v>
       </c>
@@ -12166,7 +12167,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="459" spans="1:4">
       <c r="A459" t="s">
         <v>1104</v>
       </c>
@@ -12180,7 +12181,7 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="460" spans="1:4">
       <c r="A460" t="s">
         <v>1107</v>
       </c>
@@ -12194,7 +12195,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="461" spans="1:4">
       <c r="A461" t="s">
         <v>1110</v>
       </c>
@@ -12208,7 +12209,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="462" spans="1:4">
       <c r="A462" t="s">
         <v>1112</v>
       </c>
@@ -12222,7 +12223,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="463" spans="1:4">
       <c r="A463" t="s">
         <v>1114</v>
       </c>
@@ -12236,7 +12237,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="464" spans="1:4">
       <c r="A464" t="s">
         <v>1117</v>
       </c>
@@ -12250,7 +12251,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="465" spans="1:4">
       <c r="A465" t="s">
         <v>1119</v>
       </c>
@@ -12264,7 +12265,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="466" spans="1:4">
       <c r="A466" t="s">
         <v>1121</v>
       </c>
@@ -12278,7 +12279,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="467" spans="1:4">
       <c r="A467" t="s">
         <v>1123</v>
       </c>
@@ -12292,7 +12293,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="468" spans="1:4">
       <c r="A468" t="s">
         <v>1126</v>
       </c>
@@ -12306,7 +12307,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="469" spans="1:4">
       <c r="A469" t="s">
         <v>1128</v>
       </c>
@@ -12320,7 +12321,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="470" spans="1:4">
       <c r="A470" t="s">
         <v>1130</v>
       </c>
@@ -12334,7 +12335,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="471" spans="1:4">
       <c r="A471" t="s">
         <v>1133</v>
       </c>
@@ -12348,7 +12349,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="472" spans="1:4">
       <c r="A472" t="s">
         <v>1136</v>
       </c>
@@ -12362,7 +12363,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="473" spans="1:4">
       <c r="A473" t="s">
         <v>1138</v>
       </c>
@@ -12376,7 +12377,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="474" spans="1:4">
       <c r="A474" t="s">
         <v>1139</v>
       </c>
@@ -12390,7 +12391,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="475" spans="1:4">
       <c r="A475" t="s">
         <v>1141</v>
       </c>
@@ -12404,7 +12405,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="476" spans="1:4">
       <c r="A476" t="s">
         <v>1143</v>
       </c>
@@ -12418,7 +12419,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="477" spans="1:4">
       <c r="A477" t="s">
         <v>1146</v>
       </c>
@@ -12432,7 +12433,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="478" spans="1:4">
       <c r="A478" t="s">
         <v>1148</v>
       </c>
@@ -12446,7 +12447,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="479" spans="1:4">
       <c r="A479" t="s">
         <v>1150</v>
       </c>
@@ -12460,7 +12461,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="480" spans="1:4">
       <c r="A480" t="s">
         <v>1152</v>
       </c>
@@ -12474,7 +12475,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="481" spans="1:4">
       <c r="A481" t="s">
         <v>1154</v>
       </c>
@@ -12488,7 +12489,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="482" spans="1:4">
       <c r="A482" t="s">
         <v>1156</v>
       </c>
@@ -12502,7 +12503,7 @@
         <v>807</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="483" spans="1:4">
       <c r="A483" t="s">
         <v>1158</v>
       </c>
@@ -12516,7 +12517,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="484" spans="1:4">
       <c r="A484" t="s">
         <v>1161</v>
       </c>
@@ -12530,7 +12531,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="485" spans="1:4">
       <c r="A485" t="s">
         <v>1164</v>
       </c>
@@ -12544,7 +12545,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="486" spans="1:4">
       <c r="A486" t="s">
         <v>1167</v>
       </c>
@@ -12558,7 +12559,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="487" spans="1:4">
       <c r="A487" t="s">
         <v>1169</v>
       </c>
@@ -12572,7 +12573,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="488" spans="1:4">
       <c r="A488" t="s">
         <v>1171</v>
       </c>
@@ -12586,7 +12587,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="489" spans="1:4">
       <c r="A489" t="s">
         <v>1173</v>
       </c>
@@ -12600,7 +12601,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="490" spans="1:4">
       <c r="A490" t="s">
         <v>1175</v>
       </c>
@@ -12614,7 +12615,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="491" spans="1:4">
       <c r="A491" t="s">
         <v>1177</v>
       </c>
@@ -12628,7 +12629,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="492" spans="1:4">
       <c r="A492" t="s">
         <v>1180</v>
       </c>
@@ -12642,7 +12643,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="493" spans="1:4">
       <c r="A493" t="s">
         <v>1183</v>
       </c>
@@ -12656,7 +12657,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="494" spans="1:4">
       <c r="A494" t="s">
         <v>1185</v>
       </c>
@@ -12670,7 +12671,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="495" spans="1:4">
       <c r="A495" t="s">
         <v>1187</v>
       </c>
@@ -12684,7 +12685,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="496" spans="1:4">
       <c r="A496" t="s">
         <v>1190</v>
       </c>
@@ -12698,7 +12699,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="497" spans="1:4">
       <c r="A497" t="s">
         <v>1192</v>
       </c>
@@ -12712,7 +12713,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="498" spans="1:4">
       <c r="A498" t="s">
         <v>1194</v>
       </c>
@@ -12726,7 +12727,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="499" spans="1:4">
       <c r="A499" t="s">
         <v>1196</v>
       </c>
@@ -12740,7 +12741,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="500" spans="1:4">
       <c r="A500" t="s">
         <v>1199</v>
       </c>
@@ -12754,7 +12755,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="501" spans="1:4">
       <c r="A501" t="s">
         <v>1201</v>
       </c>
@@ -12768,7 +12769,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="502" spans="1:4">
       <c r="A502" t="s">
         <v>1203</v>
       </c>
@@ -12782,7 +12783,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="503" spans="1:4">
       <c r="A503" t="s">
         <v>1205</v>
       </c>
@@ -12796,7 +12797,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="504" spans="1:4">
       <c r="A504" t="s">
         <v>1208</v>
       </c>
@@ -12810,7 +12811,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="505" spans="1:4">
       <c r="A505" t="s">
         <v>1210</v>
       </c>
@@ -12824,7 +12825,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="506" spans="1:4">
       <c r="A506" t="s">
         <v>1212</v>
       </c>
@@ -12838,7 +12839,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="507" spans="1:4">
       <c r="A507" t="s">
         <v>1214</v>
       </c>
@@ -12852,7 +12853,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="508" spans="1:4">
       <c r="A508" t="s">
         <v>1217</v>
       </c>
@@ -12866,7 +12867,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="509" spans="1:4">
       <c r="A509" t="s">
         <v>1219</v>
       </c>
@@ -12880,7 +12881,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="510" spans="1:4">
       <c r="A510" t="s">
         <v>1221</v>
       </c>
@@ -12894,7 +12895,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="511" spans="1:4">
       <c r="A511" t="s">
         <v>1223</v>
       </c>
@@ -12908,7 +12909,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="512" spans="1:4">
       <c r="A512" t="s">
         <v>1225</v>
       </c>
@@ -12922,7 +12923,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="513" spans="1:4">
       <c r="A513" t="s">
         <v>1227</v>
       </c>
@@ -12936,7 +12937,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="514" spans="1:4">
       <c r="A514" t="s">
         <v>1229</v>
       </c>
@@ -12950,7 +12951,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="515" spans="1:4">
       <c r="A515" t="s">
         <v>1231</v>
       </c>
@@ -12964,7 +12965,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="516" spans="1:4">
       <c r="A516" t="s">
         <v>1233</v>
       </c>
@@ -12978,7 +12979,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="517" spans="1:4">
       <c r="A517" t="s">
         <v>1235</v>
       </c>
@@ -12992,7 +12993,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="518" spans="1:4">
       <c r="A518" t="s">
         <v>1237</v>
       </c>
@@ -13006,7 +13007,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="519" spans="1:4">
       <c r="A519" t="s">
         <v>1239</v>
       </c>
@@ -13020,7 +13021,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="520" spans="1:4">
       <c r="A520" t="s">
         <v>1241</v>
       </c>
@@ -13034,7 +13035,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="521" spans="1:4">
       <c r="A521" t="s">
         <v>1243</v>
       </c>
@@ -13048,7 +13049,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="522" spans="1:4">
       <c r="A522" t="s">
         <v>1246</v>
       </c>
@@ -13062,7 +13063,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="523" spans="1:4">
       <c r="A523" t="s">
         <v>1249</v>
       </c>
@@ -13076,7 +13077,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="524" spans="1:4">
       <c r="A524" t="s">
         <v>1251</v>
       </c>
@@ -13090,7 +13091,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="525" spans="1:4">
       <c r="A525" t="s">
         <v>1253</v>
       </c>
@@ -13104,7 +13105,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="526" spans="1:4">
       <c r="A526" t="s">
         <v>1255</v>
       </c>
@@ -13118,7 +13119,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="527" spans="1:4">
       <c r="A527" t="s">
         <v>1257</v>
       </c>
@@ -13132,7 +13133,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="528" spans="1:4">
       <c r="A528" t="s">
         <v>1259</v>
       </c>
@@ -13146,7 +13147,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="529" spans="1:4">
       <c r="A529" t="s">
         <v>1261</v>
       </c>
@@ -13160,7 +13161,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="530" spans="1:4">
       <c r="A530" t="s">
         <v>1263</v>
       </c>
@@ -13174,7 +13175,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="531" spans="1:4">
       <c r="A531" t="s">
         <v>1265</v>
       </c>
@@ -13188,7 +13189,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="532" spans="1:4">
       <c r="A532" t="s">
         <v>1268</v>
       </c>
@@ -13202,7 +13203,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="533" spans="1:4">
       <c r="A533" t="s">
         <v>1270</v>
       </c>
@@ -13216,7 +13217,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="534" spans="1:4">
       <c r="A534" t="s">
         <v>1272</v>
       </c>
@@ -13230,7 +13231,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="535" spans="1:4">
       <c r="A535" t="s">
         <v>1274</v>
       </c>
@@ -13244,7 +13245,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="536" spans="1:4">
       <c r="A536" t="s">
         <v>1276</v>
       </c>
@@ -13258,7 +13259,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="537" spans="1:4">
       <c r="A537" t="s">
         <v>1278</v>
       </c>
@@ -13272,7 +13273,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="538" spans="1:4">
       <c r="A538" t="s">
         <v>1280</v>
       </c>
@@ -13286,7 +13287,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="539" spans="1:4">
       <c r="A539" t="s">
         <v>1282</v>
       </c>
@@ -13300,7 +13301,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="540" spans="1:4">
       <c r="A540" t="s">
         <v>1284</v>
       </c>
@@ -13314,7 +13315,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="541" spans="1:4">
       <c r="A541" t="s">
         <v>1286</v>
       </c>
@@ -13328,7 +13329,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="542" spans="1:4">
       <c r="A542" t="s">
         <v>1288</v>
       </c>
@@ -13342,7 +13343,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="543" spans="1:4">
       <c r="A543" t="s">
         <v>1290</v>
       </c>
@@ -13356,7 +13357,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="544" spans="1:4">
       <c r="A544" t="s">
         <v>1292</v>
       </c>
@@ -13370,7 +13371,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="545" spans="1:4">
       <c r="A545" t="s">
         <v>1294</v>
       </c>
@@ -13384,7 +13385,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="546" spans="1:4">
       <c r="A546" t="s">
         <v>1296</v>
       </c>
@@ -13398,7 +13399,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="547" spans="1:4">
       <c r="A547" t="s">
         <v>1299</v>
       </c>
@@ -13412,7 +13413,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="548" spans="1:4">
       <c r="A548" t="s">
         <v>1302</v>
       </c>
@@ -13426,7 +13427,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="549" spans="1:4">
       <c r="A549" t="s">
         <v>1305</v>
       </c>
@@ -13440,7 +13441,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="550" spans="1:4">
       <c r="A550" t="s">
         <v>1307</v>
       </c>
@@ -13454,7 +13455,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="551" spans="1:4">
       <c r="A551" t="s">
         <v>1310</v>
       </c>
@@ -13468,7 +13469,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="552" spans="1:4">
       <c r="A552" t="s">
         <v>1312</v>
       </c>
@@ -13482,7 +13483,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="553" spans="1:4">
       <c r="A553" t="s">
         <v>1314</v>
       </c>
@@ -13496,7 +13497,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="554" spans="1:4">
       <c r="A554" t="s">
         <v>1317</v>
       </c>
@@ -13510,7 +13511,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="555" spans="1:4">
       <c r="A555" t="s">
         <v>1319</v>
       </c>
@@ -13524,7 +13525,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="556" spans="1:4">
       <c r="A556" t="s">
         <v>1322</v>
       </c>
@@ -13538,7 +13539,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="557" spans="1:4">
       <c r="A557" t="s">
         <v>1324</v>
       </c>
@@ -13552,7 +13553,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="558" spans="1:4">
       <c r="A558" t="s">
         <v>1327</v>
       </c>
@@ -13566,7 +13567,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="559" spans="1:4">
       <c r="A559" t="s">
         <v>1329</v>
       </c>
@@ -13580,7 +13581,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="560" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="560" spans="1:4">
       <c r="A560" t="s">
         <v>1331</v>
       </c>
@@ -13594,7 +13595,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="561" spans="1:4">
       <c r="A561" t="s">
         <v>1333</v>
       </c>
@@ -13608,7 +13609,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="562" spans="1:4">
       <c r="A562" t="s">
         <v>1336</v>
       </c>
@@ -13622,7 +13623,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="563" spans="1:4">
       <c r="A563" t="s">
         <v>1338</v>
       </c>
@@ -13636,7 +13637,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="564" spans="1:4">
       <c r="A564" t="s">
         <v>1341</v>
       </c>
@@ -13650,7 +13651,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="565" spans="1:4">
       <c r="A565" t="s">
         <v>1343</v>
       </c>
@@ -13664,7 +13665,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="566" spans="1:4">
       <c r="A566" t="s">
         <v>1345</v>
       </c>
@@ -13678,7 +13679,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="567" spans="1:4">
       <c r="A567" t="s">
         <v>1347</v>
       </c>
@@ -13692,7 +13693,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="568" spans="1:4">
       <c r="A568" t="s">
         <v>1349</v>
       </c>
@@ -13706,7 +13707,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="569" spans="1:4">
       <c r="A569" t="s">
         <v>1351</v>
       </c>
@@ -13720,7 +13721,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="570" spans="1:4">
       <c r="A570" t="s">
         <v>1353</v>
       </c>
@@ -13734,7 +13735,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="571" spans="1:4">
       <c r="A571" t="s">
         <v>1355</v>
       </c>
@@ -13748,7 +13749,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="572" spans="1:4">
       <c r="A572" t="s">
         <v>1357</v>
       </c>
@@ -13762,7 +13763,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="573" spans="1:4">
       <c r="A573" t="s">
         <v>1359</v>
       </c>
@@ -13776,7 +13777,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="574" spans="1:4">
       <c r="A574" t="s">
         <v>1361</v>
       </c>
@@ -13790,7 +13791,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="575" spans="1:4">
       <c r="A575" t="s">
         <v>1364</v>
       </c>
@@ -13804,7 +13805,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="576" spans="1:4">
       <c r="A576" t="s">
         <v>1367</v>
       </c>
@@ -13818,7 +13819,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="577" spans="1:4">
       <c r="A577" t="s">
         <v>1369</v>
       </c>
@@ -13832,7 +13833,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="578" spans="1:4">
       <c r="A578" t="s">
         <v>1372</v>
       </c>
@@ -13846,7 +13847,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="579" spans="1:4">
       <c r="A579" t="s">
         <v>1374</v>
       </c>
@@ -13860,7 +13861,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="580" spans="1:4">
       <c r="A580" t="s">
         <v>1377</v>
       </c>
@@ -13874,7 +13875,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="581" spans="1:4">
       <c r="A581" t="s">
         <v>1379</v>
       </c>
@@ -13888,7 +13889,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="582" spans="1:4">
       <c r="A582" t="s">
         <v>1381</v>
       </c>
@@ -13902,7 +13903,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="583" spans="1:4">
       <c r="A583" t="s">
         <v>1384</v>
       </c>
@@ -13916,7 +13917,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="584" spans="1:4">
       <c r="A584" t="s">
         <v>1387</v>
       </c>
@@ -13930,7 +13931,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="585" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="585" spans="1:4">
       <c r="A585" t="s">
         <v>1389</v>
       </c>
@@ -13944,7 +13945,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="586" spans="1:4">
       <c r="A586" t="s">
         <v>1392</v>
       </c>
@@ -13958,7 +13959,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="587" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="587" spans="1:4">
       <c r="A587" t="s">
         <v>1395</v>
       </c>
@@ -13972,7 +13973,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="588" spans="1:4">
       <c r="A588" t="s">
         <v>1397</v>
       </c>
@@ -13986,7 +13987,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="589" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="589" spans="1:4">
       <c r="A589" t="s">
         <v>1399</v>
       </c>
@@ -14000,7 +14001,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="590" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="590" spans="1:4">
       <c r="A590" t="s">
         <v>1401</v>
       </c>
@@ -14014,7 +14015,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="591" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="591" spans="1:4">
       <c r="A591" t="s">
         <v>1404</v>
       </c>
@@ -14028,7 +14029,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="592" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="592" spans="1:4">
       <c r="A592" t="s">
         <v>1406</v>
       </c>
@@ -14042,7 +14043,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="593" spans="1:4">
       <c r="A593" t="s">
         <v>1409</v>
       </c>
@@ -14056,7 +14057,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="594" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="594" spans="1:4">
       <c r="A594" t="s">
         <v>1411</v>
       </c>
@@ -14070,7 +14071,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="595" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="595" spans="1:4">
       <c r="A595" t="s">
         <v>1413</v>
       </c>
@@ -14084,7 +14085,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="596" spans="1:4">
       <c r="A596" t="s">
         <v>1415</v>
       </c>
@@ -14098,7 +14099,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="597" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="597" spans="1:4">
       <c r="A597" t="s">
         <v>1417</v>
       </c>
@@ -14112,7 +14113,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="598" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="598" spans="1:4">
       <c r="A598" t="s">
         <v>1419</v>
       </c>
@@ -14126,7 +14127,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="599" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="599" spans="1:4">
       <c r="A599" t="s">
         <v>1421</v>
       </c>
@@ -14140,7 +14141,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="600" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="600" spans="1:4">
       <c r="A600" t="s">
         <v>1423</v>
       </c>
@@ -14154,7 +14155,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="601" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="601" spans="1:4">
       <c r="A601" t="s">
         <v>1425</v>
       </c>
@@ -14168,7 +14169,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="602" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="602" spans="1:4">
       <c r="A602" t="s">
         <v>1428</v>
       </c>
@@ -14182,7 +14183,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="603" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="603" spans="1:4">
       <c r="A603" t="s">
         <v>1430</v>
       </c>
@@ -14196,7 +14197,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="604" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="604" spans="1:4">
       <c r="A604" t="s">
         <v>1432</v>
       </c>
@@ -14210,7 +14211,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="605" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="605" spans="1:4">
       <c r="A605" t="s">
         <v>1434</v>
       </c>
@@ -14224,7 +14225,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="606" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="606" spans="1:4">
       <c r="A606" t="s">
         <v>1436</v>
       </c>
@@ -14238,7 +14239,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="607" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="607" spans="1:4">
       <c r="A607" t="s">
         <v>1439</v>
       </c>
@@ -14252,7 +14253,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="608" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="608" spans="1:4">
       <c r="A608" t="s">
         <v>1441</v>
       </c>
@@ -14266,7 +14267,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="609" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="609" spans="1:4">
       <c r="A609" t="s">
         <v>1443</v>
       </c>
@@ -14280,7 +14281,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="610" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="610" spans="1:4">
       <c r="A610" t="s">
         <v>1445</v>
       </c>
@@ -14294,7 +14295,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="611" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="611" spans="1:4">
       <c r="A611" t="s">
         <v>1447</v>
       </c>
@@ -14308,7 +14309,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="612" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="612" spans="1:4">
       <c r="A612" t="s">
         <v>1450</v>
       </c>
@@ -14322,7 +14323,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="613" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="613" spans="1:4">
       <c r="A613" t="s">
         <v>1452</v>
       </c>
@@ -14336,7 +14337,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="614" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="614" spans="1:4">
       <c r="A614" t="s">
         <v>1454</v>
       </c>
@@ -14350,7 +14351,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="615" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="615" spans="1:4">
       <c r="A615" t="s">
         <v>1456</v>
       </c>
@@ -14364,7 +14365,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="616" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="616" spans="1:4">
       <c r="A616" t="s">
         <v>1458</v>
       </c>
@@ -14378,7 +14379,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="617" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="617" spans="1:4">
       <c r="A617" t="s">
         <v>1460</v>
       </c>
@@ -14392,7 +14393,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="618" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="618" spans="1:4">
       <c r="A618" t="s">
         <v>1462</v>
       </c>
@@ -14406,7 +14407,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="619" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="619" spans="1:4">
       <c r="A619" t="s">
         <v>1464</v>
       </c>
@@ -14420,7 +14421,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="620" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="620" spans="1:4">
       <c r="A620" t="s">
         <v>1466</v>
       </c>
@@ -14434,7 +14435,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="621" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="621" spans="1:4">
       <c r="A621" t="s">
         <v>1468</v>
       </c>
@@ -14448,7 +14449,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="622" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="622" spans="1:4">
       <c r="A622" t="s">
         <v>1471</v>
       </c>
@@ -14462,7 +14463,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="623" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="623" spans="1:4">
       <c r="A623" t="s">
         <v>1473</v>
       </c>
@@ -14476,7 +14477,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="624" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="624" spans="1:4">
       <c r="A624" t="s">
         <v>1476</v>
       </c>
@@ -14490,7 +14491,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="625" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="625" spans="1:4">
       <c r="A625" t="s">
         <v>1478</v>
       </c>
@@ -14504,7 +14505,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="626" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="626" spans="1:4">
       <c r="A626" t="s">
         <v>1480</v>
       </c>
@@ -14518,7 +14519,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="627" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="627" spans="1:4">
       <c r="A627" t="s">
         <v>1483</v>
       </c>
@@ -14532,7 +14533,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="628" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="628" spans="1:4">
       <c r="A628" t="s">
         <v>1485</v>
       </c>
@@ -14546,7 +14547,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="629" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="629" spans="1:4">
       <c r="A629" t="s">
         <v>1487</v>
       </c>
@@ -14560,7 +14561,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="630" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="630" spans="1:4">
       <c r="A630" t="s">
         <v>1490</v>
       </c>
@@ -14574,7 +14575,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="631" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="631" spans="1:4">
       <c r="A631" t="s">
         <v>1492</v>
       </c>
@@ -14588,7 +14589,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="632" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="632" spans="1:4">
       <c r="A632" t="s">
         <v>1494</v>
       </c>
@@ -14602,7 +14603,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="633" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="633" spans="1:4">
       <c r="A633" t="s">
         <v>1497</v>
       </c>
@@ -14616,7 +14617,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="634" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="634" spans="1:4">
       <c r="A634" t="s">
         <v>1499</v>
       </c>
@@ -14630,7 +14631,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="635" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="635" spans="1:4">
       <c r="A635" t="s">
         <v>1501</v>
       </c>
@@ -14644,7 +14645,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="636" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="636" spans="1:4">
       <c r="A636" t="s">
         <v>1503</v>
       </c>
@@ -14658,7 +14659,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="637" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="637" spans="1:4">
       <c r="A637" t="s">
         <v>1505</v>
       </c>
@@ -14672,7 +14673,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="638" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="638" spans="1:4">
       <c r="A638" t="s">
         <v>1507</v>
       </c>
@@ -14686,7 +14687,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="639" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="639" spans="1:4">
       <c r="A639" t="s">
         <v>1510</v>
       </c>
@@ -14700,7 +14701,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="640" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="640" spans="1:4">
       <c r="A640" t="s">
         <v>1512</v>
       </c>
@@ -14714,7 +14715,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="641" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="641" spans="1:4">
       <c r="A641" t="s">
         <v>1514</v>
       </c>
@@ -14728,7 +14729,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="642" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="642" spans="1:4">
       <c r="A642" t="s">
         <v>1516</v>
       </c>
@@ -14742,7 +14743,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="643" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="643" spans="1:4">
       <c r="A643" t="s">
         <v>1518</v>
       </c>
@@ -14756,7 +14757,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="644" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="644" spans="1:4">
       <c r="A644" t="s">
         <v>1520</v>
       </c>
@@ -14770,7 +14771,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="645" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="645" spans="1:4">
       <c r="A645" t="s">
         <v>1523</v>
       </c>
@@ -14784,7 +14785,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="646" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="646" spans="1:4">
       <c r="A646" t="s">
         <v>1526</v>
       </c>
@@ -14798,7 +14799,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="647" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="647" spans="1:4">
       <c r="A647" t="s">
         <v>1528</v>
       </c>
@@ -14812,7 +14813,7 @@
         <v>1530</v>
       </c>
     </row>
-    <row r="648" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="648" spans="1:4">
       <c r="A648" t="s">
         <v>1531</v>
       </c>
@@ -14826,7 +14827,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="649" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="649" spans="1:4">
       <c r="A649" t="s">
         <v>1533</v>
       </c>
@@ -14840,7 +14841,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="650" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="650" spans="1:4">
       <c r="A650" t="s">
         <v>1535</v>
       </c>
@@ -14854,7 +14855,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="651" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="651" spans="1:4">
       <c r="A651" t="s">
         <v>1538</v>
       </c>
@@ -14868,7 +14869,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="652" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="652" spans="1:4">
       <c r="A652" t="s">
         <v>1540</v>
       </c>
@@ -14882,7 +14883,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="653" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="653" spans="1:4">
       <c r="A653" t="s">
         <v>1542</v>
       </c>
@@ -14896,7 +14897,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="654" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="654" spans="1:4">
       <c r="A654" t="s">
         <v>1544</v>
       </c>
@@ -14910,7 +14911,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="655" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="655" spans="1:4">
       <c r="A655" t="s">
         <v>1546</v>
       </c>
@@ -14924,7 +14925,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="656" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="656" spans="1:4">
       <c r="A656" t="s">
         <v>1548</v>
       </c>
@@ -14938,7 +14939,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="657" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="657" spans="1:4">
       <c r="A657" t="s">
         <v>1551</v>
       </c>
@@ -14952,7 +14953,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="658" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="658" spans="1:4">
       <c r="A658" t="s">
         <v>1553</v>
       </c>
@@ -14966,7 +14967,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="659" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="659" spans="1:4">
       <c r="A659" t="s">
         <v>1555</v>
       </c>
@@ -14980,7 +14981,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="660" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="660" spans="1:4">
       <c r="A660" t="s">
         <v>1558</v>
       </c>
@@ -14994,7 +14995,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="661" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="661" spans="1:4">
       <c r="A661" t="s">
         <v>1560</v>
       </c>
@@ -15008,7 +15009,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="662" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="662" spans="1:4">
       <c r="A662" t="s">
         <v>1562</v>
       </c>
@@ -15022,7 +15023,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="663" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="663" spans="1:4">
       <c r="A663" t="s">
         <v>1564</v>
       </c>
@@ -15036,7 +15037,7 @@
         <v>1566</v>
       </c>
     </row>
-    <row r="664" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="664" spans="1:4">
       <c r="A664" t="s">
         <v>1567</v>
       </c>
@@ -15050,7 +15051,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="665" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="665" spans="1:4">
       <c r="A665" t="s">
         <v>1569</v>
       </c>
@@ -15064,7 +15065,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="666" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="666" spans="1:4">
       <c r="A666" t="s">
         <v>1571</v>
       </c>
@@ -15078,7 +15079,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="667" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="667" spans="1:4">
       <c r="A667" t="s">
         <v>1574</v>
       </c>
@@ -15092,7 +15093,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="668" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="668" spans="1:4">
       <c r="A668" t="s">
         <v>1576</v>
       </c>
@@ -15106,7 +15107,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="669" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="669" spans="1:4">
       <c r="A669" t="s">
         <v>1578</v>
       </c>
@@ -15120,7 +15121,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="670" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="670" spans="1:4">
       <c r="A670" t="s">
         <v>1580</v>
       </c>
@@ -15134,7 +15135,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="671" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="671" spans="1:4">
       <c r="A671" t="s">
         <v>1582</v>
       </c>
@@ -15148,7 +15149,7 @@
         <v>1584</v>
       </c>
     </row>
-    <row r="672" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="672" spans="1:4">
       <c r="A672" t="s">
         <v>1585</v>
       </c>
@@ -15162,7 +15163,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="673" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="673" spans="1:4">
       <c r="A673" t="s">
         <v>1587</v>
       </c>
@@ -15176,7 +15177,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="674" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="674" spans="1:4">
       <c r="A674" t="s">
         <v>1589</v>
       </c>
@@ -15190,7 +15191,7 @@
         <v>1591</v>
       </c>
     </row>
-    <row r="675" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="675" spans="1:4">
       <c r="A675" t="s">
         <v>1592</v>
       </c>
@@ -15204,7 +15205,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="676" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="676" spans="1:4">
       <c r="A676" t="s">
         <v>1594</v>
       </c>
@@ -15218,7 +15219,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="677" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="677" spans="1:4">
       <c r="A677" t="s">
         <v>1596</v>
       </c>
@@ -15232,7 +15233,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="678" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="678" spans="1:4">
       <c r="A678" t="s">
         <v>1598</v>
       </c>
@@ -15246,7 +15247,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="679" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="679" spans="1:4">
       <c r="A679" t="s">
         <v>1600</v>
       </c>
@@ -15260,7 +15261,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="680" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="680" spans="1:4">
       <c r="A680" t="s">
         <v>1602</v>
       </c>
@@ -15274,7 +15275,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="681" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="681" spans="1:4">
       <c r="A681" t="s">
         <v>1604</v>
       </c>
